--- a/ITI/BALP/StructureDefinition-IHE.IUA.71.xlsx
+++ b/ITI/BALP/StructureDefinition-IHE.IUA.71.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:16:52-05:00</t>
+    <t>2022-10-21T09:04:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,10 +279,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -301,7 +297,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -668,6 +664,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -1970,16 +1970,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="41.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.00390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.8125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1988,28 +1988,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="73.9296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.4453125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="73.93359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.44921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2233,16 +2233,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2267,28 +2267,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2338,13 +2338,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2384,25 +2384,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2453,19 +2453,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2499,28 +2499,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2570,19 +2570,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2616,7 +2616,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2628,16 +2628,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2663,43 +2663,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2722,18 +2722,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2745,16 +2745,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2804,25 +2804,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -2839,11 +2839,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2862,16 +2862,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2921,7 +2921,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -2939,7 +2939,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -2956,11 +2956,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2979,16 +2979,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3038,7 +3038,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3050,13 +3050,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3073,11 +3073,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3090,25 +3090,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -3157,7 +3157,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3169,13 +3169,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3200,32 +3200,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3235,73 +3235,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3317,32 +3317,32 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3352,29 +3352,29 @@
         <v>78</v>
       </c>
       <c r="R12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="S12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3403,19 +3403,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3437,29 +3437,29 @@
         <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
@@ -3469,70 +3469,70 @@
         <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="S13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W13" t="s" s="2">
+      <c r="X13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3554,7 +3554,7 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -3566,16 +3566,16 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3625,42 +3625,42 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3668,34 +3668,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3744,42 +3744,42 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3790,28 +3790,28 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3837,55 +3837,55 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="AM16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3907,19 +3907,19 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>206</v>
@@ -3976,19 +3976,19 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
@@ -4000,7 +4000,7 @@
         <v>209</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4031,7 +4031,7 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>211</v>
@@ -4069,7 +4069,7 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X18" t="s" s="2">
         <v>215</v>
@@ -4105,7 +4105,7 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>217</v>
@@ -4213,7 +4213,7 @@
         <v>223</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4222,7 +4222,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>234</v>
@@ -4256,7 +4256,7 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -4268,7 +4268,7 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>241</v>
@@ -4331,7 +4331,7 @@
         <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4383,16 +4383,16 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4454,7 +4454,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>78</v>
@@ -4494,13 +4494,13 @@
         <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>250</v>
@@ -4509,10 +4509,10 @@
         <v>251</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>78</v>
@@ -4573,13 +4573,13 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
@@ -4607,7 +4607,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4652,7 +4652,7 @@
         <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X23" t="s" s="2">
         <v>256</v>
@@ -4682,13 +4682,13 @@
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>258</v>
@@ -4807,7 +4807,7 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
@@ -4841,16 +4841,16 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>275</v>
@@ -4920,13 +4920,13 @@
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>280</v>
@@ -4960,7 +4960,7 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -4972,7 +4972,7 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>286</v>
@@ -5037,13 +5037,13 @@
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
@@ -5077,7 +5077,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -5089,7 +5089,7 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>292</v>
@@ -5154,13 +5154,13 @@
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
@@ -5191,19 +5191,19 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>298</v>
@@ -5270,16 +5270,16 @@
         <v>297</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5313,7 +5313,7 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5388,13 +5388,13 @@
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>309</v>
@@ -5440,7 +5440,7 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>315</v>
@@ -5513,7 +5513,7 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5547,7 +5547,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5559,7 +5559,7 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>323</v>
@@ -5594,7 +5594,7 @@
         <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X31" t="s" s="2">
         <v>326</v>
@@ -5624,13 +5624,13 @@
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5664,7 +5664,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5739,13 +5739,13 @@
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5779,7 +5779,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -5791,7 +5791,7 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>241</v>
@@ -5854,7 +5854,7 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5906,16 +5906,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5977,7 +5977,7 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -6017,13 +6017,13 @@
         <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>250</v>
@@ -6032,10 +6032,10 @@
         <v>251</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -6096,13 +6096,13 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -6130,7 +6130,7 @@
         <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -6142,7 +6142,7 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>338</v>
@@ -6209,13 +6209,13 @@
         <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -6249,7 +6249,7 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6261,7 +6261,7 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>346</v>
@@ -6296,7 +6296,7 @@
         <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X37" t="s" s="2">
         <v>349</v>
@@ -6326,13 +6326,13 @@
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
@@ -6413,7 +6413,7 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>215</v>
@@ -6449,7 +6449,7 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6482,10 +6482,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6561,7 +6561,7 @@
         <v>223</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6570,7 +6570,7 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>234</v>
@@ -6604,7 +6604,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6616,7 +6616,7 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>241</v>
@@ -6679,7 +6679,7 @@
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6731,16 +6731,16 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6802,7 +6802,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -6842,13 +6842,13 @@
         <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>250</v>
@@ -6857,10 +6857,10 @@
         <v>251</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>78</v>
@@ -6921,13 +6921,13 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -6952,10 +6952,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -7000,7 +7000,7 @@
         <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X43" t="s" s="2">
         <v>256</v>
@@ -7030,13 +7030,13 @@
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>258</v>
@@ -7155,7 +7155,7 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
@@ -7186,19 +7186,19 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>275</v>
@@ -7268,13 +7268,13 @@
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>280</v>
@@ -7308,7 +7308,7 @@
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -7320,7 +7320,7 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>286</v>
@@ -7385,13 +7385,13 @@
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7425,7 +7425,7 @@
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7437,7 +7437,7 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>292</v>
@@ -7502,13 +7502,13 @@
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7539,19 +7539,19 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>298</v>
@@ -7618,16 +7618,16 @@
         <v>297</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7661,7 +7661,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7736,13 +7736,13 @@
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>309</v>
@@ -7788,7 +7788,7 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>315</v>
@@ -7861,7 +7861,7 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
@@ -7907,7 +7907,7 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>323</v>
@@ -7942,7 +7942,7 @@
         <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>326</v>
@@ -7972,13 +7972,13 @@
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -8009,10 +8009,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -8087,13 +8087,13 @@
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -8127,7 +8127,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -8139,7 +8139,7 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>241</v>
@@ -8202,7 +8202,7 @@
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8254,16 +8254,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8325,7 +8325,7 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -8365,13 +8365,13 @@
         <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>250</v>
@@ -8380,10 +8380,10 @@
         <v>251</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>78</v>
@@ -8444,13 +8444,13 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
@@ -8478,7 +8478,7 @@
         <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8490,7 +8490,7 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>338</v>
@@ -8557,13 +8557,13 @@
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
@@ -8597,7 +8597,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8609,7 +8609,7 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>346</v>
@@ -8644,7 +8644,7 @@
         <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X57" t="s" s="2">
         <v>349</v>
@@ -8674,13 +8674,13 @@
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
@@ -8761,7 +8761,7 @@
         <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X58" t="s" s="2">
         <v>215</v>
@@ -8797,7 +8797,7 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -8830,10 +8830,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -8909,7 +8909,7 @@
         <v>223</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8918,7 +8918,7 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>234</v>
@@ -8952,7 +8952,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -8964,7 +8964,7 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>241</v>
@@ -9027,7 +9027,7 @@
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9079,16 +9079,16 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9150,7 +9150,7 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
@@ -9190,13 +9190,13 @@
         <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>250</v>
@@ -9205,10 +9205,10 @@
         <v>251</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -9269,13 +9269,13 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
@@ -9300,10 +9300,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -9348,7 +9348,7 @@
         <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X63" t="s" s="2">
         <v>256</v>
@@ -9378,13 +9378,13 @@
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>258</v>
@@ -9503,7 +9503,7 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
@@ -9534,19 +9534,19 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>275</v>
@@ -9616,13 +9616,13 @@
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>280</v>
@@ -9656,7 +9656,7 @@
         <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9668,7 +9668,7 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>286</v>
@@ -9733,13 +9733,13 @@
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
@@ -9773,7 +9773,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -9785,7 +9785,7 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>292</v>
@@ -9850,13 +9850,13 @@
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
@@ -9887,19 +9887,19 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>298</v>
@@ -9966,16 +9966,16 @@
         <v>297</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10009,7 +10009,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
@@ -10084,13 +10084,13 @@
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>309</v>
@@ -10136,7 +10136,7 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>315</v>
@@ -10209,7 +10209,7 @@
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
@@ -10255,7 +10255,7 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>323</v>
@@ -10290,7 +10290,7 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X71" t="s" s="2">
         <v>326</v>
@@ -10320,13 +10320,13 @@
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
@@ -10357,10 +10357,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>78</v>
@@ -10435,13 +10435,13 @@
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
@@ -10475,7 +10475,7 @@
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -10487,7 +10487,7 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>241</v>
@@ -10550,7 +10550,7 @@
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
@@ -10583,7 +10583,7 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10602,16 +10602,16 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10673,7 +10673,7 @@
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
@@ -10713,13 +10713,13 @@
         <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>250</v>
@@ -10728,10 +10728,10 @@
         <v>251</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>78</v>
@@ -10792,13 +10792,13 @@
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
@@ -10826,7 +10826,7 @@
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10838,7 +10838,7 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>338</v>
@@ -10905,13 +10905,13 @@
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
@@ -10945,7 +10945,7 @@
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -10957,7 +10957,7 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>346</v>
@@ -10992,7 +10992,7 @@
         <v>78</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X77" t="s" s="2">
         <v>349</v>
@@ -11022,13 +11022,13 @@
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
@@ -11109,7 +11109,7 @@
         <v>78</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X78" t="s" s="2">
         <v>215</v>
@@ -11145,7 +11145,7 @@
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
@@ -11181,7 +11181,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11257,7 +11257,7 @@
         <v>223</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11266,7 +11266,7 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>234</v>
@@ -11300,7 +11300,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11312,7 +11312,7 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>241</v>
@@ -11375,7 +11375,7 @@
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>78</v>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11427,16 +11427,16 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11498,7 +11498,7 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>78</v>
@@ -11538,13 +11538,13 @@
         <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>250</v>
@@ -11553,10 +11553,10 @@
         <v>251</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>78</v>
@@ -11617,13 +11617,13 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
@@ -11648,10 +11648,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>78</v>
@@ -11696,7 +11696,7 @@
         <v>78</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X83" t="s" s="2">
         <v>256</v>
@@ -11726,13 +11726,13 @@
         <v>79</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>258</v>
@@ -11769,7 +11769,7 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11851,7 +11851,7 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>78</v>
@@ -11882,19 +11882,19 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>275</v>
@@ -11964,13 +11964,13 @@
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>280</v>
@@ -12016,7 +12016,7 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>286</v>
@@ -12081,13 +12081,13 @@
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
@@ -12121,11 +12121,11 @@
         <v>79</v>
       </c>
       <c r="F87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G87" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G87" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>292</v>
@@ -12198,13 +12198,13 @@
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>78</v>
@@ -12235,19 +12235,19 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>298</v>
@@ -12314,16 +12314,16 @@
         <v>297</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>78</v>
@@ -12357,7 +12357,7 @@
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>78</v>
@@ -12432,13 +12432,13 @@
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>309</v>
@@ -12484,7 +12484,7 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>315</v>
@@ -12557,7 +12557,7 @@
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
@@ -12603,7 +12603,7 @@
         <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>323</v>
@@ -12638,7 +12638,7 @@
         <v>78</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X91" t="s" s="2">
         <v>326</v>
@@ -12668,13 +12668,13 @@
         <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>78</v>
@@ -12783,13 +12783,13 @@
         <v>79</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>78</v>
@@ -12823,7 +12823,7 @@
         <v>79</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>78</v>
@@ -12835,7 +12835,7 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>241</v>
@@ -12898,7 +12898,7 @@
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12950,16 +12950,16 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13021,7 +13021,7 @@
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
@@ -13061,13 +13061,13 @@
         <v>78</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>250</v>
@@ -13076,10 +13076,10 @@
         <v>251</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>78</v>
@@ -13140,13 +13140,13 @@
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>78</v>
@@ -13174,7 +13174,7 @@
         <v>79</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>78</v>
@@ -13186,7 +13186,7 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>338</v>
@@ -13253,13 +13253,13 @@
         <v>79</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>78</v>
@@ -13293,7 +13293,7 @@
         <v>79</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>78</v>
@@ -13305,7 +13305,7 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>346</v>
@@ -13340,7 +13340,7 @@
         <v>78</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X97" t="s" s="2">
         <v>349</v>
@@ -13370,13 +13370,13 @@
         <v>79</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
@@ -13413,7 +13413,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>78</v>
@@ -13457,7 +13457,7 @@
         <v>78</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X98" t="s" s="2">
         <v>215</v>
@@ -13493,7 +13493,7 @@
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
@@ -13524,13 +13524,13 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G99" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>78</v>
@@ -13603,16 +13603,16 @@
         <v>365</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13646,7 +13646,7 @@
         <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>78</v>
@@ -13658,7 +13658,7 @@
         <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>241</v>
@@ -13721,7 +13721,7 @@
         <v>79</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>78</v>
@@ -13754,7 +13754,7 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13773,16 +13773,16 @@
         <v>78</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13844,7 +13844,7 @@
         <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>78</v>
@@ -13884,13 +13884,13 @@
         <v>78</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>250</v>
@@ -13899,10 +13899,10 @@
         <v>251</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>78</v>
@@ -13963,13 +13963,13 @@
         <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>78</v>
@@ -13997,7 +13997,7 @@
         <v>79</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>78</v>
@@ -14009,7 +14009,7 @@
         <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>377</v>
@@ -14074,13 +14074,13 @@
         <v>79</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>78</v>
@@ -14111,19 +14111,19 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I104" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>275</v>
@@ -14188,16 +14188,16 @@
         <v>382</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
@@ -14243,7 +14243,7 @@
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>389</v>
@@ -14278,7 +14278,7 @@
         <v>78</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X105" t="s" s="2">
         <v>392</v>
@@ -14314,7 +14314,7 @@
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
@@ -14345,10 +14345,10 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>78</v>
@@ -14443,7 +14443,7 @@
         <v>405</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>406</v>
@@ -14465,7 +14465,7 @@
         <v>79</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>78</v>
@@ -14477,7 +14477,7 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>241</v>
@@ -14540,7 +14540,7 @@
         <v>79</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>78</v>
@@ -14573,7 +14573,7 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14592,16 +14592,16 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K108" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -14663,7 +14663,7 @@
         <v>78</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>78</v>
@@ -14703,13 +14703,13 @@
         <v>78</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>250</v>
@@ -14718,10 +14718,10 @@
         <v>251</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>78</v>
@@ -14782,13 +14782,13 @@
         <v>78</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>78</v>
@@ -14816,16 +14816,16 @@
         <v>79</v>
       </c>
       <c r="F110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I110" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>412</v>
@@ -14891,13 +14891,13 @@
         <v>79</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>78</v>
@@ -14909,7 +14909,7 @@
         <v>415</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -14931,7 +14931,7 @@
         <v>79</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>78</v>
@@ -14943,7 +14943,7 @@
         <v>78</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>418</v>
@@ -14980,7 +14980,7 @@
         <v>78</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X111" t="s" s="2">
         <v>422</v>
@@ -15010,13 +15010,13 @@
         <v>79</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
@@ -15028,7 +15028,7 @@
         <v>425</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>426</v>
@@ -15050,7 +15050,7 @@
         <v>79</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>78</v>
@@ -15062,7 +15062,7 @@
         <v>78</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>429</v>
@@ -15097,7 +15097,7 @@
         <v>78</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X112" t="s" s="2">
         <v>432</v>
@@ -15127,13 +15127,13 @@
         <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
@@ -15167,7 +15167,7 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>78</v>
@@ -15179,7 +15179,7 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>439</v>
@@ -15216,7 +15216,7 @@
         <v>78</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>440</v>
@@ -15246,13 +15246,13 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
@@ -15298,7 +15298,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>448</v>
@@ -15335,7 +15335,7 @@
         <v>78</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X114" t="s" s="2">
         <v>452</v>
@@ -15371,7 +15371,7 @@
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15405,19 +15405,19 @@
         <v>79</v>
       </c>
       <c r="F115" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I115" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J115" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>457</v>
@@ -15484,13 +15484,13 @@
         <v>79</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15524,7 +15524,7 @@
         <v>79</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>78</v>
@@ -15536,7 +15536,7 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>466</v>
@@ -15601,13 +15601,13 @@
         <v>79</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15641,16 +15641,16 @@
         <v>79</v>
       </c>
       <c r="F117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I117" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J117" t="s" s="2">
         <v>471</v>
@@ -15720,13 +15720,13 @@
         <v>79</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -15843,7 +15843,7 @@
         <v>78</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -15877,7 +15877,7 @@
         <v>79</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>78</v>
@@ -15889,7 +15889,7 @@
         <v>78</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>241</v>
@@ -15952,7 +15952,7 @@
         <v>79</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>78</v>
@@ -15985,7 +15985,7 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -16004,16 +16004,16 @@
         <v>78</v>
       </c>
       <c r="J120" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K120" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -16075,7 +16075,7 @@
         <v>78</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>78</v>
@@ -16115,13 +16115,13 @@
         <v>78</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>250</v>
@@ -16130,10 +16130,10 @@
         <v>251</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>78</v>
@@ -16194,13 +16194,13 @@
         <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>78</v>
@@ -16225,10 +16225,10 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>78</v>
@@ -16240,7 +16240,7 @@
         <v>78</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>488</v>
@@ -16300,16 +16300,16 @@
         <v>487</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>78</v>
@@ -16340,10 +16340,10 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>78</v>
@@ -16419,16 +16419,16 @@
         <v>491</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
@@ -16461,10 +16461,10 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>78</v>
@@ -16561,7 +16561,7 @@
         <v>405</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>406</v>
@@ -16583,7 +16583,7 @@
         <v>79</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>78</v>
@@ -16595,7 +16595,7 @@
         <v>78</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>241</v>
@@ -16658,7 +16658,7 @@
         <v>79</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>78</v>
@@ -16691,7 +16691,7 @@
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -16710,16 +16710,16 @@
         <v>78</v>
       </c>
       <c r="J126" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K126" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L126" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -16781,7 +16781,7 @@
         <v>78</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>78</v>
@@ -16821,13 +16821,13 @@
         <v>78</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>250</v>
@@ -16836,10 +16836,10 @@
         <v>251</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>78</v>
@@ -16900,13 +16900,13 @@
         <v>78</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>78</v>
@@ -16943,7 +16943,7 @@
         <v>78</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J128" t="s" s="2">
         <v>412</v>
@@ -17009,13 +17009,13 @@
         <v>79</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>78</v>
@@ -17027,7 +17027,7 @@
         <v>415</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>78</v>
@@ -17049,7 +17049,7 @@
         <v>79</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>78</v>
@@ -17061,7 +17061,7 @@
         <v>78</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>418</v>
@@ -17098,7 +17098,7 @@
         <v>78</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X129" t="s" s="2">
         <v>422</v>
@@ -17128,13 +17128,13 @@
         <v>79</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
@@ -17146,7 +17146,7 @@
         <v>425</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>426</v>
@@ -17165,10 +17165,10 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>78</v>
@@ -17180,7 +17180,7 @@
         <v>78</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>429</v>
@@ -17215,7 +17215,7 @@
         <v>78</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X130" t="s" s="2">
         <v>432</v>
@@ -17245,13 +17245,13 @@
         <v>79</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>78</v>
@@ -17285,7 +17285,7 @@
         <v>79</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>78</v>
@@ -17297,7 +17297,7 @@
         <v>78</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>439</v>
@@ -17334,7 +17334,7 @@
         <v>78</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X131" t="s" s="2">
         <v>440</v>
@@ -17364,13 +17364,13 @@
         <v>79</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>78</v>
@@ -17416,7 +17416,7 @@
         <v>78</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>448</v>
@@ -17453,7 +17453,7 @@
         <v>78</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X132" t="s" s="2">
         <v>452</v>
@@ -17489,7 +17489,7 @@
         <v>78</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>78</v>
@@ -17523,19 +17523,19 @@
         <v>79</v>
       </c>
       <c r="F133" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I133" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J133" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>457</v>
@@ -17602,13 +17602,13 @@
         <v>79</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
@@ -17642,7 +17642,7 @@
         <v>79</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>78</v>
@@ -17654,7 +17654,7 @@
         <v>78</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>466</v>
@@ -17719,13 +17719,13 @@
         <v>79</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
@@ -17756,19 +17756,19 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I135" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F135" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J135" t="s" s="2">
         <v>471</v>
@@ -17838,13 +17838,13 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>78</v>
@@ -17961,7 +17961,7 @@
         <v>78</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>78</v>
@@ -17995,7 +17995,7 @@
         <v>79</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>78</v>
@@ -18007,7 +18007,7 @@
         <v>78</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>241</v>
@@ -18070,7 +18070,7 @@
         <v>79</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>78</v>
@@ -18103,7 +18103,7 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18122,16 +18122,16 @@
         <v>78</v>
       </c>
       <c r="J138" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K138" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L138" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -18193,7 +18193,7 @@
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18233,13 +18233,13 @@
         <v>78</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>250</v>
@@ -18248,10 +18248,10 @@
         <v>251</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>78</v>
@@ -18312,13 +18312,13 @@
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>78</v>
@@ -18343,10 +18343,10 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>78</v>
@@ -18358,7 +18358,7 @@
         <v>78</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>488</v>
@@ -18418,16 +18418,16 @@
         <v>487</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18458,10 +18458,10 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>78</v>
@@ -18537,16 +18537,16 @@
         <v>491</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18582,7 +18582,7 @@
         <v>79</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>78</v>
@@ -18679,7 +18679,7 @@
         <v>405</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>406</v>
@@ -18701,7 +18701,7 @@
         <v>79</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>78</v>
@@ -18713,7 +18713,7 @@
         <v>78</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>241</v>
@@ -18776,7 +18776,7 @@
         <v>79</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
@@ -18809,7 +18809,7 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18828,16 +18828,16 @@
         <v>78</v>
       </c>
       <c r="J144" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K144" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L144" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -18899,7 +18899,7 @@
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
@@ -18939,13 +18939,13 @@
         <v>78</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>250</v>
@@ -18954,10 +18954,10 @@
         <v>251</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>78</v>
@@ -19018,13 +19018,13 @@
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>78</v>
@@ -19049,19 +19049,19 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I146" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F146" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J146" t="s" s="2">
         <v>412</v>
@@ -19127,13 +19127,13 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -19145,7 +19145,7 @@
         <v>415</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>78</v>
@@ -19167,7 +19167,7 @@
         <v>79</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>78</v>
@@ -19179,7 +19179,7 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>418</v>
@@ -19216,7 +19216,7 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X147" t="s" s="2">
         <v>422</v>
@@ -19246,13 +19246,13 @@
         <v>79</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19264,7 +19264,7 @@
         <v>425</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>426</v>
@@ -19283,10 +19283,10 @@
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>78</v>
@@ -19298,7 +19298,7 @@
         <v>78</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>429</v>
@@ -19333,7 +19333,7 @@
         <v>78</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X148" t="s" s="2">
         <v>432</v>
@@ -19363,13 +19363,13 @@
         <v>79</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19403,7 +19403,7 @@
         <v>79</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>78</v>
@@ -19415,7 +19415,7 @@
         <v>78</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>439</v>
@@ -19452,7 +19452,7 @@
         <v>78</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X149" t="s" s="2">
         <v>440</v>
@@ -19482,13 +19482,13 @@
         <v>79</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19534,7 +19534,7 @@
         <v>78</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>448</v>
@@ -19571,7 +19571,7 @@
         <v>78</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X150" t="s" s="2">
         <v>452</v>
@@ -19607,7 +19607,7 @@
         <v>78</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19641,19 +19641,19 @@
         <v>79</v>
       </c>
       <c r="F151" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I151" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J151" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>457</v>
@@ -19720,13 +19720,13 @@
         <v>79</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -19760,7 +19760,7 @@
         <v>79</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>78</v>
@@ -19772,7 +19772,7 @@
         <v>78</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>466</v>
@@ -19837,13 +19837,13 @@
         <v>79</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>78</v>
@@ -19877,16 +19877,16 @@
         <v>79</v>
       </c>
       <c r="F153" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I153" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J153" t="s" s="2">
         <v>471</v>
@@ -19956,13 +19956,13 @@
         <v>79</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>78</v>
@@ -19993,7 +19993,7 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F154" t="s" s="2">
         <v>80</v>
@@ -20079,7 +20079,7 @@
         <v>78</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>78</v>
@@ -20113,7 +20113,7 @@
         <v>79</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>78</v>
@@ -20125,7 +20125,7 @@
         <v>78</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K155" t="s" s="2">
         <v>241</v>
@@ -20188,7 +20188,7 @@
         <v>79</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>78</v>
@@ -20221,7 +20221,7 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20240,16 +20240,16 @@
         <v>78</v>
       </c>
       <c r="J156" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K156" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L156" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20311,7 +20311,7 @@
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
@@ -20351,13 +20351,13 @@
         <v>78</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K157" t="s" s="2">
         <v>250</v>
@@ -20366,10 +20366,10 @@
         <v>251</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>78</v>
@@ -20430,13 +20430,13 @@
         <v>78</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>78</v>
@@ -20461,10 +20461,10 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20476,7 +20476,7 @@
         <v>78</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K158" t="s" s="2">
         <v>488</v>
@@ -20536,16 +20536,16 @@
         <v>487</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>78</v>
@@ -20576,10 +20576,10 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>78</v>
@@ -20655,16 +20655,16 @@
         <v>491</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>78</v>
